--- a/src/results/dataclass/tnb.xlsx
+++ b/src/results/dataclass/tnb.xlsx
@@ -49,10 +49,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -488,147 +488,147 @@
         <v>53</v>
       </c>
       <c r="M2" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="L3" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F4" t="n">
         <v>44</v>
       </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M4" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="E5" t="n">
         <v>44</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>42</v>
@@ -664,15 +664,15 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -690,33 +690,33 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -734,33 +734,33 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -787,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -807,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -840,24 +840,24 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -878,21 +878,21 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
